--- a/Tasks/SUSStatistics.xlsx
+++ b/Tasks/SUSStatistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54D48C50-43E5-402F-9ACA-132D7C9D97B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CFBA9B6-87DF-44FE-B8B3-21764AF06401}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 απαντήσεις φόρμας" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1353,7 +1353,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3986,7 +3986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA00D51-8ACF-46C9-9D2E-1A145D1ABF7E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -3999,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0840D45-5BAB-4DC5-A58B-245D90F72DA9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
